--- a/Docs/Lab03/Lab03_WBT_TCs_Form-3.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form-3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC26C4-40B8-4D64-886F-9F1F04639F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5118A278-1F16-44EA-8BD2-93A0A243D9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="115">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -55,22 +55,13 @@
     <t>Student 1:</t>
   </si>
   <si>
-    <t>Urban Robert</t>
-  </si>
-  <si>
     <t>Student 2:</t>
   </si>
   <si>
-    <t>Vincze Iulia</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
     <t>Student 3:</t>
-  </si>
-  <si>
-    <t>Zaharia Georgian</t>
   </si>
   <si>
     <t>Aplicatia gestioneaza piesele componente si produsele finite ale unei companii de productie. Informatiile sunt preluate dintr-un fisier text. Functionalitatile aplicatiei sunt:</t>
@@ -294,9 +285,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,7,6</t>
-  </si>
-  <si>
-    <t>.........?</t>
   </si>
   <si>
     <t>F02_TC05</t>
@@ -489,6 +477,27 @@
   </si>
   <si>
     <t>nu</t>
+  </si>
+  <si>
+    <t>Vila Bogdan</t>
+  </si>
+  <si>
+    <t>Vaida Octav</t>
+  </si>
+  <si>
+    <t>Repo.getAllParts()</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>A, B, C</t>
+  </si>
+  <si>
+    <t>A, Y, C</t>
   </si>
 </sst>
 </file>
@@ -721,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1143,11 +1152,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1237,6 +1257,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,12 +1269,18 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1261,9 +1290,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,9 +1317,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,6 +1329,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,22 +1353,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,9 +1419,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1378,43 +1434,22 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1987,7 +2022,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1997,12 +2032,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
@@ -2050,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="P7" s="23">
         <v>237</v>
@@ -2062,10 +2097,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="N8" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="P8" s="23">
         <v>237</v>
@@ -2073,24 +2108,20 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="N9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="23">
-        <v>237</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2098,7 +2129,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2131,8 +2162,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,367 +2174,359 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
-      <c r="I6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="Q6" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="Q6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="I8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
+        <v>21</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
       <c r="T8" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="Q9" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
+      <c r="Q9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
       <c r="T9" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="I10" s="48" t="e">
+      <c r="I10" s="50" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="Q10" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="57"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="45"/>
       <c r="T10" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+        <v>29</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="Q13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="Q13" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
       <c r="Q15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="Q16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="43" t="s">
         <v>36</v>
-      </c>
-      <c r="R15" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="Q16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="43" t="s">
-        <v>39</v>
       </c>
       <c r="S16" s="43"/>
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
       <c r="Q17" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R17" s="43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S17" s="43"/>
       <c r="T17" s="43"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
       <c r="Q18" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R18" s="43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S18" s="43"/>
       <c r="T18" s="43"/>
     </row>
     <row r="19" spans="9:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
       <c r="Q19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="61"/>
+      <c r="T19" s="62"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="Q20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="46" t="s">
         <v>44</v>
-      </c>
-      <c r="R19" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="Q20" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>47</v>
       </c>
       <c r="S20" s="43"/>
       <c r="T20" s="43"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
       <c r="Q21" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="S21" s="43"/>
       <c r="T21" s="43"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2520,6 +2543,14 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2532,15 +2563,16 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
@@ -2557,293 +2589,306 @@
     <col min="18" max="19" width="10.88671875" customWidth="1"/>
     <col min="20" max="20" width="10.44140625" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" customWidth="1"/>
-    <col min="22" max="24" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" customWidth="1"/>
+    <col min="23" max="24" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" customWidth="1"/>
     <col min="26" max="26" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.44140625" customWidth="1"/>
     <col min="28" max="28" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="3" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="5" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+    <row r="6" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+    </row>
+    <row r="7" spans="2:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="G7" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-    </row>
-    <row r="7" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="70" t="s">
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+    </row>
+    <row r="8" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="102"/>
+      <c r="D8" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="100"/>
+      <c r="G8" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="65" t="s">
+      <c r="J8" s="65"/>
+      <c r="K8" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-    </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="68" t="s">
+      <c r="L8" s="65"/>
+      <c r="M8" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="s">
+      <c r="N8" s="65"/>
+      <c r="O8" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="67">
+        <v>0</v>
+      </c>
+      <c r="X8" s="67">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="67">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="s">
+      <c r="AA8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
+      <c r="AB8" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="65">
-        <v>0</v>
-      </c>
-      <c r="W8" s="65">
-        <v>1</v>
-      </c>
-      <c r="X8" s="65">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="65" t="s">
+      <c r="AC8" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="Z8" s="65" t="s">
+    </row>
+    <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="70"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AA8" s="65" t="s">
+      <c r="H9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="I9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+    </row>
+    <row r="10" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="G10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
+      <c r="O10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="15"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="17"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="X10" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17" t="s">
+      <c r="AA10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+    </row>
+    <row r="11" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -2851,190 +2896,200 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="16"/>
+      <c r="P11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
-      <c r="V11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="W11" s="17"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>78</v>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>113</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="15"/>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
+      <c r="P12" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="17"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="16"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
-      <c r="Z12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="AB12" s="17"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="AC12" s="17"/>
+    </row>
+    <row r="13" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L13" s="15"/>
-      <c r="M13" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="15"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
-      <c r="S13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="U13" s="16"/>
-      <c r="V13" s="17"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
+      <c r="Y13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="AA13" s="17"/>
-      <c r="AB13" s="17" t="s">
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="F14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="17"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
-      <c r="Z14" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="AC14" s="17"/>
+    </row>
+    <row r="15" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -3044,55 +3099,56 @@
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="17"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AC15" s="17"/>
+    </row>
+    <row r="16" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:AC6"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="W8:W9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3104,229 +3160,253 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="3" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="3" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="74" t="s">
+      <c r="G4" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="H4" s="90"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="88"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="95"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="H5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="77"/>
-    </row>
-    <row r="5" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>9</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>97</v>
+      <c r="C6" s="91" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>10</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <v>11</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>12</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="84" t="s">
+      <c r="D14" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="71" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89" t="s">
+      <c r="G14" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="H14" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="I14" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="J14" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="86"/>
-    </row>
-    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="76"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="23">
         <v>5</v>
       </c>
@@ -3336,40 +3416,41 @@
       <c r="D16" s="22">
         <v>0</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="22"/>
+      <c r="F16" s="38">
         <v>1</v>
       </c>
-      <c r="F16" s="24">
+      <c r="G16" s="24">
         <v>0</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="26">
+      <c r="H16" s="25"/>
+      <c r="I16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3377,6 +3458,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3520,15 +3610,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3536,6 +3617,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3553,14 +3642,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
